--- a/data/pca/factorExposure/factorExposure_2017-09-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02342525000003887</v>
+        <v>-0.004259672175300982</v>
       </c>
       <c r="C2">
-        <v>-0.0001275126982239489</v>
+        <v>-0.0396754502645279</v>
       </c>
       <c r="D2">
-        <v>0.01544513837181411</v>
+        <v>-0.02955331948487595</v>
       </c>
       <c r="E2">
-        <v>-0.008924956873837545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02650323932137474</v>
+      </c>
+      <c r="F2">
+        <v>0.02423336665809024</v>
+      </c>
+      <c r="G2">
+        <v>0.03260040603442485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0130365776690474</v>
+        <v>-0.049875100248142</v>
       </c>
       <c r="C3">
-        <v>-0.04035218279341401</v>
+        <v>-0.07722447541216844</v>
       </c>
       <c r="D3">
-        <v>0.01316684963699991</v>
+        <v>-0.01516197591389147</v>
       </c>
       <c r="E3">
-        <v>-0.001295024979757312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08901699668728308</v>
+      </c>
+      <c r="F3">
+        <v>0.0647862162616475</v>
+      </c>
+      <c r="G3">
+        <v>0.08109378082145725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02215009094518602</v>
+        <v>-0.05361346553745733</v>
       </c>
       <c r="C4">
-        <v>-0.01378833387226819</v>
+        <v>-0.06169283384775547</v>
       </c>
       <c r="D4">
-        <v>0.06133869783510155</v>
+        <v>-0.023309212407583</v>
       </c>
       <c r="E4">
-        <v>0.01770650186116935</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01564382339356876</v>
+      </c>
+      <c r="F4">
+        <v>0.01313870915316873</v>
+      </c>
+      <c r="G4">
+        <v>0.05428143131036178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01521178377757257</v>
+        <v>-0.03339000948660702</v>
       </c>
       <c r="C6">
-        <v>-0.01687253312267811</v>
+        <v>-0.05082315182105257</v>
       </c>
       <c r="D6">
-        <v>0.08174986072655038</v>
+        <v>-0.0160602633741295</v>
       </c>
       <c r="E6">
-        <v>0.009401124929224491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01376164390445627</v>
+      </c>
+      <c r="F6">
+        <v>0.01204729046642323</v>
+      </c>
+      <c r="G6">
+        <v>0.0361043106151296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.009969720237480644</v>
+        <v>-0.01328841058346196</v>
       </c>
       <c r="C7">
-        <v>-0.001689070988596194</v>
+        <v>-0.036372090339309</v>
       </c>
       <c r="D7">
-        <v>0.03116876870536867</v>
+        <v>-0.01341676244562634</v>
       </c>
       <c r="E7">
-        <v>0.07266436986510365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01130957369644376</v>
+      </c>
+      <c r="F7">
+        <v>0.007668790036632695</v>
+      </c>
+      <c r="G7">
+        <v>0.08924624499647486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0002141287782503081</v>
+        <v>0.003301752100634879</v>
       </c>
       <c r="C8">
-        <v>0.006724272888044176</v>
+        <v>-0.0185136398388335</v>
       </c>
       <c r="D8">
-        <v>0.005546388867999061</v>
+        <v>-0.004084653805050319</v>
       </c>
       <c r="E8">
-        <v>0.008047933844887922</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01988120407208684</v>
+      </c>
+      <c r="F8">
+        <v>0.02459181859660835</v>
+      </c>
+      <c r="G8">
+        <v>0.02616725845605356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01465862669589809</v>
+        <v>-0.02935230878593737</v>
       </c>
       <c r="C9">
-        <v>-0.01259249766349002</v>
+        <v>-0.04278175122283733</v>
       </c>
       <c r="D9">
-        <v>0.04550162852608997</v>
+        <v>-0.01619997939945362</v>
       </c>
       <c r="E9">
-        <v>0.008019018063654631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01256400099584036</v>
+      </c>
+      <c r="F9">
+        <v>0.0184556826433851</v>
+      </c>
+      <c r="G9">
+        <v>0.04589112923609458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01147081321322052</v>
+        <v>-0.09172703787683822</v>
       </c>
       <c r="C10">
-        <v>-0.1611061713372721</v>
+        <v>0.1852414820348892</v>
       </c>
       <c r="D10">
-        <v>-0.120005349320247</v>
+        <v>0.01751416078114014</v>
       </c>
       <c r="E10">
-        <v>0.01186840785909891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01310186033393947</v>
+      </c>
+      <c r="F10">
+        <v>-0.01276348798001111</v>
+      </c>
+      <c r="G10">
+        <v>0.04673792998529397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0001147673916199491</v>
+        <v>-0.02997048388565637</v>
       </c>
       <c r="C11">
-        <v>-0.004123326415149882</v>
+        <v>-0.05364861340176225</v>
       </c>
       <c r="D11">
-        <v>0.04359069717731051</v>
+        <v>-0.002269786676583184</v>
       </c>
       <c r="E11">
-        <v>-0.007757828475120744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.004732177810207819</v>
+      </c>
+      <c r="F11">
+        <v>0.02407113504447045</v>
+      </c>
+      <c r="G11">
+        <v>0.0273162479426838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005466410468109606</v>
+        <v>-0.03052082185237776</v>
       </c>
       <c r="C12">
-        <v>-0.01214297787204268</v>
+        <v>-0.04562765837996292</v>
       </c>
       <c r="D12">
-        <v>0.04566576443597373</v>
+        <v>-0.00619202605879304</v>
       </c>
       <c r="E12">
-        <v>0.001121546596824297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.002671820863409788</v>
+      </c>
+      <c r="F12">
+        <v>0.008522254099014611</v>
+      </c>
+      <c r="G12">
+        <v>0.03062371134030187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02116458696093687</v>
+        <v>-0.01273172758613537</v>
       </c>
       <c r="C13">
-        <v>-0.01128686085506556</v>
+        <v>-0.03126297849306553</v>
       </c>
       <c r="D13">
-        <v>0.01310522910765414</v>
+        <v>-0.02496167976643214</v>
       </c>
       <c r="E13">
-        <v>-0.006211151684645643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01989417740014584</v>
+      </c>
+      <c r="F13">
+        <v>0.01717828638448909</v>
+      </c>
+      <c r="G13">
+        <v>0.04234715678536613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007010440758885497</v>
+        <v>-0.006759119145530621</v>
       </c>
       <c r="C14">
-        <v>-0.01209906827242096</v>
+        <v>-0.0261298930371467</v>
       </c>
       <c r="D14">
-        <v>0.01559683375136582</v>
+        <v>-0.008752076293501835</v>
       </c>
       <c r="E14">
-        <v>0.01223023794293955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.007090347169586928</v>
+      </c>
+      <c r="F14">
+        <v>-0.0005832025744889342</v>
+      </c>
+      <c r="G14">
+        <v>0.04784435834487372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0006812407251146307</v>
+        <v>-0.02950888245463116</v>
       </c>
       <c r="C16">
-        <v>-0.01144608862553957</v>
+        <v>-0.04455462927633885</v>
       </c>
       <c r="D16">
-        <v>0.0462998422989534</v>
+        <v>-0.001688168513836935</v>
       </c>
       <c r="E16">
-        <v>-0.0003048900139649441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.005107899514947899</v>
+      </c>
+      <c r="F16">
+        <v>0.01165241123289979</v>
+      </c>
+      <c r="G16">
+        <v>0.02860012588500079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01301285391450004</v>
+        <v>-0.02208024187362301</v>
       </c>
       <c r="C19">
-        <v>-0.02385879603693229</v>
+        <v>-0.04812427082528798</v>
       </c>
       <c r="D19">
-        <v>0.02419910694993315</v>
+        <v>-0.01647422817003808</v>
       </c>
       <c r="E19">
-        <v>0.006712121839929516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0514291994559224</v>
+      </c>
+      <c r="F19">
+        <v>0.03619553586057703</v>
+      </c>
+      <c r="G19">
+        <v>0.05568554376862081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01012260868156994</v>
+        <v>-0.01018213387321083</v>
       </c>
       <c r="C20">
-        <v>-0.005104746342395613</v>
+        <v>-0.03392254856693688</v>
       </c>
       <c r="D20">
-        <v>0.01084127788380753</v>
+        <v>-0.013210814241106</v>
       </c>
       <c r="E20">
-        <v>0.0004818377782932638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0216725645242998</v>
+      </c>
+      <c r="F20">
+        <v>0.001886846542191909</v>
+      </c>
+      <c r="G20">
+        <v>0.04473311720791097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01391087445737526</v>
+        <v>-0.01311510305231561</v>
       </c>
       <c r="C21">
-        <v>-0.02967694509454939</v>
+        <v>-0.03585957149578908</v>
       </c>
       <c r="D21">
-        <v>0.0198146923649473</v>
+        <v>-0.01651301422173947</v>
       </c>
       <c r="E21">
-        <v>0.02004982705439143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02883885683300689</v>
+      </c>
+      <c r="F21">
+        <v>0.01169946150320708</v>
+      </c>
+      <c r="G21">
+        <v>0.06666713889406621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004653367619543643</v>
+        <v>-0.02305518311094971</v>
       </c>
       <c r="C24">
-        <v>-0.003197398176127898</v>
+        <v>-0.04739503852041931</v>
       </c>
       <c r="D24">
-        <v>0.04280658765656237</v>
+        <v>-0.007166829350299303</v>
       </c>
       <c r="E24">
-        <v>-0.002307498965486139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.0008696098318899058</v>
+      </c>
+      <c r="F24">
+        <v>0.02167681426945329</v>
+      </c>
+      <c r="G24">
+        <v>0.03001788131212514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01115752956337654</v>
+        <v>-0.03851458141974609</v>
       </c>
       <c r="C25">
-        <v>-0.02033480417269423</v>
+        <v>-0.05495853258648398</v>
       </c>
       <c r="D25">
-        <v>0.04300050492632116</v>
+        <v>-0.0113405601532977</v>
       </c>
       <c r="E25">
-        <v>-0.001188113668543898</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.004598933673291881</v>
+      </c>
+      <c r="F25">
+        <v>0.01752565790714791</v>
+      </c>
+      <c r="G25">
+        <v>0.03718287939437977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02242198226550013</v>
+        <v>-0.01166063332829341</v>
       </c>
       <c r="C26">
-        <v>-0.007630415244665591</v>
+        <v>-0.008673438994313817</v>
       </c>
       <c r="D26">
-        <v>-0.007155110938608693</v>
+        <v>-0.02368183972458458</v>
       </c>
       <c r="E26">
-        <v>0.009791401310321784</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.004514955412383075</v>
+      </c>
+      <c r="F26">
+        <v>0.002116826321891763</v>
+      </c>
+      <c r="G26">
+        <v>0.03596962765772283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.03001808737908295</v>
+        <v>-0.1167543455418353</v>
       </c>
       <c r="C28">
-        <v>-0.2364575172531695</v>
+        <v>0.2283917105183286</v>
       </c>
       <c r="D28">
-        <v>-0.1704342035208898</v>
+        <v>0.008426749585176283</v>
       </c>
       <c r="E28">
-        <v>0.01995089788613674</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.002326010079270956</v>
+      </c>
+      <c r="F28">
+        <v>-0.0111696694251932</v>
+      </c>
+      <c r="G28">
+        <v>0.06310181583074395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007213880078864858</v>
+        <v>-0.01063371727592207</v>
       </c>
       <c r="C29">
-        <v>-0.01652537959452684</v>
+        <v>-0.0198984099363666</v>
       </c>
       <c r="D29">
-        <v>0.01229784810713223</v>
+        <v>-0.007538927059795194</v>
       </c>
       <c r="E29">
-        <v>0.007609194123063801</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007998698050339799</v>
+      </c>
+      <c r="F29">
+        <v>-0.009453293438908491</v>
+      </c>
+      <c r="G29">
+        <v>0.03913500412159859</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02293512142014243</v>
+        <v>-0.04042193779928167</v>
       </c>
       <c r="C30">
-        <v>0.0009865011782167466</v>
+        <v>-0.06539900033337619</v>
       </c>
       <c r="D30">
-        <v>0.06533851503268039</v>
+        <v>-0.02781517105493049</v>
       </c>
       <c r="E30">
-        <v>-0.05622458498870178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.037809300981605</v>
+      </c>
+      <c r="F30">
+        <v>0.05335919727052427</v>
+      </c>
+      <c r="G30">
+        <v>0.0157269703803941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.007416172237127592</v>
+        <v>-0.04628739399856763</v>
       </c>
       <c r="C31">
-        <v>-0.04318806726698907</v>
+        <v>-0.03282508501375909</v>
       </c>
       <c r="D31">
-        <v>0.04251760098166334</v>
+        <v>-0.003555568000649391</v>
       </c>
       <c r="E31">
-        <v>0.009214517945121254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008651233232609187</v>
+      </c>
+      <c r="F31">
+        <v>-0.03115585196898795</v>
+      </c>
+      <c r="G31">
+        <v>0.03684330902696828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007355054809523883</v>
+        <v>0.003353750345997304</v>
       </c>
       <c r="C32">
-        <v>-0.01574405686383134</v>
+        <v>-0.03120442483412501</v>
       </c>
       <c r="D32">
-        <v>-0.001901629044607846</v>
+        <v>0.004129066014694227</v>
       </c>
       <c r="E32">
-        <v>0.02940451367392566</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.007413313145035883</v>
+      </c>
+      <c r="F32">
+        <v>0.05012507737242491</v>
+      </c>
+      <c r="G32">
+        <v>0.05799739974221328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01208582182749255</v>
+        <v>-0.02397568712366757</v>
       </c>
       <c r="C33">
-        <v>-0.02129763760437046</v>
+        <v>-0.0473590313202917</v>
       </c>
       <c r="D33">
-        <v>0.02200087307909667</v>
+        <v>-0.01464383813509215</v>
       </c>
       <c r="E33">
-        <v>-0.02210680537966223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02147157757919134</v>
+      </c>
+      <c r="F33">
+        <v>0.03091852771608657</v>
+      </c>
+      <c r="G33">
+        <v>0.04397129637260034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004841279250230686</v>
+        <v>-0.03817273176094493</v>
       </c>
       <c r="C34">
-        <v>-0.01915954149380112</v>
+        <v>-0.05631392381153204</v>
       </c>
       <c r="D34">
-        <v>0.04839226882061824</v>
+        <v>0.004574953119485944</v>
       </c>
       <c r="E34">
-        <v>0.007121764466429098</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.005733116877136408</v>
+      </c>
+      <c r="F34">
+        <v>0.02705994629059489</v>
+      </c>
+      <c r="G34">
+        <v>0.04203674636878801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01178714742652918</v>
+        <v>-0.01080764829259014</v>
       </c>
       <c r="C36">
-        <v>-0.01736839014839216</v>
+        <v>-0.007570141942714621</v>
       </c>
       <c r="D36">
-        <v>0.001243773809156548</v>
+        <v>-0.01157941741352671</v>
       </c>
       <c r="E36">
-        <v>0.004049299358328201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-2.741134878453254e-05</v>
+      </c>
+      <c r="F36">
+        <v>-0.003348956353066528</v>
+      </c>
+      <c r="G36">
+        <v>0.0308722288599784</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.005889971328040507</v>
+        <v>-0.03050603302593467</v>
       </c>
       <c r="C38">
-        <v>-0.02953966251365503</v>
+        <v>-0.0276142762102677</v>
       </c>
       <c r="D38">
-        <v>0.01998696065397005</v>
+        <v>0.007361221238619283</v>
       </c>
       <c r="E38">
-        <v>0.006626438809891558</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.00413413202242105</v>
+      </c>
+      <c r="F38">
+        <v>-0.004062152231281899</v>
+      </c>
+      <c r="G38">
+        <v>0.04119819995872762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005628996706303859</v>
+        <v>-0.02979161857998325</v>
       </c>
       <c r="C39">
-        <v>0.02173915979318662</v>
+        <v>-0.08067676563872371</v>
       </c>
       <c r="D39">
-        <v>0.09063394206798236</v>
+        <v>-0.01230650838863566</v>
       </c>
       <c r="E39">
-        <v>-0.006293721385985733</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02188399848734382</v>
+      </c>
+      <c r="F39">
+        <v>0.04172876204310205</v>
+      </c>
+      <c r="G39">
+        <v>0.03160501572588671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.009935846062481407</v>
+        <v>-0.01800383780882715</v>
       </c>
       <c r="C40">
-        <v>-0.009434114155457307</v>
+        <v>-0.03197575769435834</v>
       </c>
       <c r="D40">
-        <v>0.03781177335473596</v>
+        <v>-0.01327028756857876</v>
       </c>
       <c r="E40">
-        <v>-0.003167178522756831</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0176275530461422</v>
+      </c>
+      <c r="F40">
+        <v>0.02111941316185436</v>
+      </c>
+      <c r="G40">
+        <v>0.03203961002710385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.004961533713389666</v>
+        <v>-0.01049130441207072</v>
       </c>
       <c r="C41">
-        <v>-0.02016561514380023</v>
+        <v>0.0002819274507860253</v>
       </c>
       <c r="D41">
-        <v>-0.0107782661340225</v>
+        <v>-0.003897791596075451</v>
       </c>
       <c r="E41">
-        <v>0.003666485096203986</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002359005328690634</v>
+      </c>
+      <c r="F41">
+        <v>0.002736082378720501</v>
+      </c>
+      <c r="G41">
+        <v>0.02145504068933083</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09435806128130465</v>
+        <v>-0.01522894975593366</v>
       </c>
       <c r="C42">
-        <v>0.004048889480489764</v>
+        <v>-0.04461553033446029</v>
       </c>
       <c r="D42">
-        <v>0.2756481655634397</v>
+        <v>-0.09552901656174498</v>
       </c>
       <c r="E42">
-        <v>-0.2751881637493618</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04295738487852524</v>
+      </c>
+      <c r="F42">
+        <v>-0.04810218805209113</v>
+      </c>
+      <c r="G42">
+        <v>-0.1562027096520638</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.005896969353841337</v>
+        <v>-0.02652806696563715</v>
       </c>
       <c r="C43">
-        <v>-0.01964073614914374</v>
+        <v>-0.01036847113675199</v>
       </c>
       <c r="D43">
-        <v>-0.01622933986611861</v>
+        <v>-0.004474760932994169</v>
       </c>
       <c r="E43">
-        <v>-0.001433018752679369</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003502446298133106</v>
+      </c>
+      <c r="F43">
+        <v>0.002133271878925562</v>
+      </c>
+      <c r="G43">
+        <v>0.02961600264590941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002804865209048197</v>
+        <v>-0.01216399718780762</v>
       </c>
       <c r="C44">
-        <v>0.000306600753596258</v>
+        <v>-0.04953621844303974</v>
       </c>
       <c r="D44">
-        <v>0.0248239672955759</v>
+        <v>-0.006626015247861097</v>
       </c>
       <c r="E44">
-        <v>0.004483147897183586</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01520955317789601</v>
+      </c>
+      <c r="F44">
+        <v>0.008970033266521999</v>
+      </c>
+      <c r="G44">
+        <v>0.04864537587433001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01042211058816141</v>
+        <v>-0.004967322722546874</v>
       </c>
       <c r="C46">
-        <v>-0.01818840632793643</v>
+        <v>-0.01680053928616607</v>
       </c>
       <c r="D46">
-        <v>0.01110764313563488</v>
+        <v>-0.0115605727998356</v>
       </c>
       <c r="E46">
-        <v>0.002946184536060725</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.004816420594595477</v>
+      </c>
+      <c r="F46">
+        <v>-0.01167736777879962</v>
+      </c>
+      <c r="G46">
+        <v>0.03547849483296211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.001399331437183207</v>
+        <v>-0.07450474384857005</v>
       </c>
       <c r="C47">
-        <v>-0.05461742052785616</v>
+        <v>-0.06487872179553396</v>
       </c>
       <c r="D47">
-        <v>0.05648237958635827</v>
+        <v>0.004802167547765256</v>
       </c>
       <c r="E47">
-        <v>-0.001058271927746488</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008306411802043376</v>
+      </c>
+      <c r="F47">
+        <v>-0.04988599033993101</v>
+      </c>
+      <c r="G47">
+        <v>0.03617789827291092</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002575564881261503</v>
+        <v>-0.02033096921268182</v>
       </c>
       <c r="C48">
-        <v>-0.02559710558857393</v>
+        <v>-0.009561198310885305</v>
       </c>
       <c r="D48">
-        <v>0.01165935448544274</v>
+        <v>-0.00100823151163363</v>
       </c>
       <c r="E48">
-        <v>0.002893196916734546</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002173984881338733</v>
+      </c>
+      <c r="F48">
+        <v>-0.01117138469549128</v>
+      </c>
+      <c r="G48">
+        <v>0.03814985478891764</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.002550080981505207</v>
+        <v>-0.07873820261404815</v>
       </c>
       <c r="C50">
-        <v>-0.04562446684125827</v>
+        <v>-0.06662842884629115</v>
       </c>
       <c r="D50">
-        <v>0.06222043517766553</v>
+        <v>0.003195241580627685</v>
       </c>
       <c r="E50">
-        <v>0.02632218023345989</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01222575165409999</v>
+      </c>
+      <c r="F50">
+        <v>-0.04833808701463201</v>
+      </c>
+      <c r="G50">
+        <v>0.06064444266991724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006995803545165059</v>
+        <v>-0.008167775082482013</v>
       </c>
       <c r="C51">
-        <v>-0.0196174731380496</v>
+        <v>-0.02729593483763103</v>
       </c>
       <c r="D51">
-        <v>-0.01233622072300312</v>
+        <v>-0.009332905688178432</v>
       </c>
       <c r="E51">
-        <v>0.01066242682491532</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.006715345315782121</v>
+      </c>
+      <c r="F51">
+        <v>0.02385564701902544</v>
+      </c>
+      <c r="G51">
+        <v>0.06071922370344042</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.004444968851263477</v>
+        <v>-0.08340183387830426</v>
       </c>
       <c r="C53">
-        <v>-0.07080003725705339</v>
+        <v>-0.08114081508466579</v>
       </c>
       <c r="D53">
-        <v>0.1152198012408446</v>
+        <v>0.004160952700416537</v>
       </c>
       <c r="E53">
-        <v>0.008188691265866523</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02838461850843996</v>
+      </c>
+      <c r="F53">
+        <v>-0.05698490981611999</v>
+      </c>
+      <c r="G53">
+        <v>0.03980654276942568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001077095284901705</v>
+        <v>-0.02961531185362227</v>
       </c>
       <c r="C54">
-        <v>-0.03268097773821684</v>
+        <v>-0.0102929506048694</v>
       </c>
       <c r="D54">
-        <v>-0.008619278306345539</v>
+        <v>0.002904369689885684</v>
       </c>
       <c r="E54">
-        <v>0.01138154328324032</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0004839504944447603</v>
+      </c>
+      <c r="F54">
+        <v>-0.001870368726122961</v>
+      </c>
+      <c r="G54">
+        <v>0.04037374668178535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.002004627919160072</v>
+        <v>-0.0706542463030321</v>
       </c>
       <c r="C55">
-        <v>-0.05202132268573724</v>
+        <v>-0.0724127410523074</v>
       </c>
       <c r="D55">
-        <v>0.0993852304893358</v>
+        <v>0.004471715373758252</v>
       </c>
       <c r="E55">
-        <v>-0.00418311943524759</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02062031747437779</v>
+      </c>
+      <c r="F55">
+        <v>-0.05340720501291273</v>
+      </c>
+      <c r="G55">
+        <v>0.02092146747416172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.001611714590108855</v>
+        <v>-0.1425645915119048</v>
       </c>
       <c r="C56">
-        <v>-0.09311519161292199</v>
+        <v>-0.105479259475218</v>
       </c>
       <c r="D56">
-        <v>0.1474425623513527</v>
+        <v>0.01287384543926426</v>
       </c>
       <c r="E56">
-        <v>-0.002513986718234495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0312308876477944</v>
+      </c>
+      <c r="F56">
+        <v>-0.08330957953170397</v>
+      </c>
+      <c r="G56">
+        <v>0.01219659926228721</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0236899363405376</v>
+        <v>-0.009663340574703581</v>
       </c>
       <c r="C57">
-        <v>-0.02414940426496722</v>
+        <v>-0.01072109315724841</v>
       </c>
       <c r="D57">
-        <v>0.04294224654575268</v>
+        <v>-0.02376753839182117</v>
       </c>
       <c r="E57">
-        <v>-0.002108042828267636</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02777562587514931</v>
+      </c>
+      <c r="F57">
+        <v>0.01691829194240386</v>
+      </c>
+      <c r="G57">
+        <v>0.02457732706931392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01007372282435774</v>
+        <v>-0.06744158337264743</v>
       </c>
       <c r="C58">
-        <v>-0.0922175898789223</v>
+        <v>-0.03840978386599251</v>
       </c>
       <c r="D58">
-        <v>0.09333516959163267</v>
+        <v>-0.01649345939020751</v>
       </c>
       <c r="E58">
-        <v>-0.2046493555549794</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9549015477887444</v>
+      </c>
+      <c r="F58">
+        <v>-0.1875341742472227</v>
+      </c>
+      <c r="G58">
+        <v>0.003078247333472326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.0260788362505721</v>
+        <v>-0.1587753959654463</v>
       </c>
       <c r="C59">
-        <v>-0.2469336154835959</v>
+        <v>0.2118736004227371</v>
       </c>
       <c r="D59">
-        <v>-0.1690892834995459</v>
+        <v>0.0154747953267962</v>
       </c>
       <c r="E59">
-        <v>-0.003789617805956695</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01037279954902655</v>
+      </c>
+      <c r="F59">
+        <v>0.006547028638194103</v>
+      </c>
+      <c r="G59">
+        <v>0.02252943946829376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03190832146912656</v>
+        <v>-0.2872744021040478</v>
       </c>
       <c r="C60">
-        <v>-0.1614599585357405</v>
+        <v>-0.0993165735782451</v>
       </c>
       <c r="D60">
-        <v>0.08926157187431694</v>
+        <v>-0.01179755612370873</v>
       </c>
       <c r="E60">
-        <v>-0.03681447290002443</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.008359065274689277</v>
+      </c>
+      <c r="F60">
+        <v>0.3560642717468596</v>
+      </c>
+      <c r="G60">
+        <v>-0.09960632777759747</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.00283959652485345</v>
+        <v>-0.03196606997264571</v>
       </c>
       <c r="C61">
-        <v>-0.005503366806286537</v>
+        <v>-0.06541334884149569</v>
       </c>
       <c r="D61">
-        <v>0.06593078378992116</v>
+        <v>-0.005531821602595052</v>
       </c>
       <c r="E61">
-        <v>-0.002471381993917759</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.008980623760785122</v>
+      </c>
+      <c r="F61">
+        <v>0.02403969860263584</v>
+      </c>
+      <c r="G61">
+        <v>0.0301807804192513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007129941027594418</v>
+        <v>-0.01141953546441597</v>
       </c>
       <c r="C63">
-        <v>-0.007278178512472728</v>
+        <v>-0.02793624734999374</v>
       </c>
       <c r="D63">
-        <v>0.007471264375083697</v>
+        <v>-0.008127060273158888</v>
       </c>
       <c r="E63">
-        <v>0.009368451157481026</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.006512617605108025</v>
+      </c>
+      <c r="F63">
+        <v>-0.01493735037205757</v>
+      </c>
+      <c r="G63">
+        <v>0.0429124590704261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.006785786508005125</v>
+        <v>-0.04990028973719262</v>
       </c>
       <c r="C64">
-        <v>-0.0258458448782379</v>
+        <v>-0.04141981213693349</v>
       </c>
       <c r="D64">
-        <v>0.06246574457890876</v>
+        <v>-0.005574144030381111</v>
       </c>
       <c r="E64">
-        <v>-0.008874247169398554</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006500652684300913</v>
+      </c>
+      <c r="F64">
+        <v>0.007190463943089633</v>
+      </c>
+      <c r="G64">
+        <v>0.02808849955495157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01768213014923945</v>
+        <v>-0.08125494325093029</v>
       </c>
       <c r="C65">
-        <v>-0.02148605466039549</v>
+        <v>-0.06152889210632745</v>
       </c>
       <c r="D65">
-        <v>0.09422315269410519</v>
+        <v>-0.01561061293068413</v>
       </c>
       <c r="E65">
-        <v>0.007230869405168938</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01813162872978596</v>
+      </c>
+      <c r="F65">
+        <v>0.03466509338804304</v>
+      </c>
+      <c r="G65">
+        <v>0.02051510042347172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005312069793813332</v>
+        <v>-0.04835417226418011</v>
       </c>
       <c r="C66">
-        <v>0.01172108900951562</v>
+        <v>-0.1136330815243479</v>
       </c>
       <c r="D66">
-        <v>0.1169856658343285</v>
+        <v>-0.01211076630563237</v>
       </c>
       <c r="E66">
-        <v>-0.02053194415731362</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02699361691581196</v>
+      </c>
+      <c r="F66">
+        <v>0.05135736661678414</v>
+      </c>
+      <c r="G66">
+        <v>0.02591826314699173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0006267364564021574</v>
+        <v>-0.05323067784746093</v>
       </c>
       <c r="C67">
-        <v>-0.04752708546077382</v>
+        <v>-0.03258619403491778</v>
       </c>
       <c r="D67">
-        <v>0.0271683336898903</v>
+        <v>0.005416116754681809</v>
       </c>
       <c r="E67">
-        <v>0.004937250392649429</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.001629628203911147</v>
+      </c>
+      <c r="F67">
+        <v>-0.00515380845666271</v>
+      </c>
+      <c r="G67">
+        <v>0.03952136208387137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.04444788122739341</v>
+        <v>-0.1383682835216032</v>
       </c>
       <c r="C68">
-        <v>-0.2237026609566215</v>
+        <v>0.2693193113353674</v>
       </c>
       <c r="D68">
-        <v>-0.1575767619798403</v>
+        <v>-0.002900935912529744</v>
       </c>
       <c r="E68">
-        <v>-0.01002111280703886</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01091110096982725</v>
+      </c>
+      <c r="F68">
+        <v>-0.03538092902268702</v>
+      </c>
+      <c r="G68">
+        <v>0.02520641299883237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003340229396953672</v>
+        <v>-0.07628435089752551</v>
       </c>
       <c r="C69">
-        <v>-0.03821877962360426</v>
+        <v>-0.06586392626736896</v>
       </c>
       <c r="D69">
-        <v>0.05993079443106848</v>
+        <v>0.008620979010579044</v>
       </c>
       <c r="E69">
-        <v>0.003955369594463654</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02563852451779315</v>
+      </c>
+      <c r="F69">
+        <v>-0.0327205722592174</v>
+      </c>
+      <c r="G69">
+        <v>0.03781260367301208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.0310722917405178</v>
+        <v>-0.1335590320020013</v>
       </c>
       <c r="C71">
-        <v>-0.1957540427784913</v>
+        <v>0.2342430639289498</v>
       </c>
       <c r="D71">
-        <v>-0.1486548554761607</v>
+        <v>0.006156283306387887</v>
       </c>
       <c r="E71">
-        <v>0.004234882611777343</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02546098783057903</v>
+      </c>
+      <c r="F71">
+        <v>-0.004933231499500167</v>
+      </c>
+      <c r="G71">
+        <v>0.03763050727780556</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002330165631860545</v>
+        <v>-0.0821014513241505</v>
       </c>
       <c r="C72">
-        <v>-0.04439451558372866</v>
+        <v>-0.07356620184848153</v>
       </c>
       <c r="D72">
-        <v>0.1316268655887991</v>
+        <v>0.008106125342844208</v>
       </c>
       <c r="E72">
-        <v>-0.01911593826662575</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.009435179652983839</v>
+      </c>
+      <c r="F72">
+        <v>0.03764380561693997</v>
+      </c>
+      <c r="G72">
+        <v>0.01057296625525843</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.04561007368147271</v>
+        <v>-0.3958707302897095</v>
       </c>
       <c r="C73">
-        <v>-0.1911828670097502</v>
+        <v>-0.1115499817292067</v>
       </c>
       <c r="D73">
-        <v>0.1559093213346313</v>
+        <v>-0.01774035269165415</v>
       </c>
       <c r="E73">
-        <v>-0.09519960795858771</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.04139051243394989</v>
+      </c>
+      <c r="F73">
+        <v>0.550481621044976</v>
+      </c>
+      <c r="G73">
+        <v>-0.1808631174441796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0002288261397790089</v>
+        <v>-0.1116164364032648</v>
       </c>
       <c r="C74">
-        <v>-0.08443282250470346</v>
+        <v>-0.1187615903960481</v>
       </c>
       <c r="D74">
-        <v>0.1516869990832007</v>
+        <v>0.009512820853185165</v>
       </c>
       <c r="E74">
-        <v>-0.009838651508206722</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.0119772279156512</v>
+      </c>
+      <c r="F74">
+        <v>-0.07209448569910507</v>
+      </c>
+      <c r="G74">
+        <v>0.04733027903911218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.003630409354469144</v>
+        <v>-0.2532735540793034</v>
       </c>
       <c r="C75">
-        <v>-0.2000080022617148</v>
+        <v>-0.1523294260288011</v>
       </c>
       <c r="D75">
-        <v>0.2749431850891828</v>
+        <v>0.0300248179310366</v>
       </c>
       <c r="E75">
-        <v>-0.03027845918636531</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.04281687896939002</v>
+      </c>
+      <c r="F75">
+        <v>-0.1885086550879562</v>
+      </c>
+      <c r="G75">
+        <v>-0.02391438500986683</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.004002252907120676</v>
+        <v>-0.1281955945567329</v>
       </c>
       <c r="C76">
-        <v>-0.1372186262068572</v>
+        <v>-0.1224204568479247</v>
       </c>
       <c r="D76">
-        <v>0.2279271700627419</v>
+        <v>0.02042436845758</v>
       </c>
       <c r="E76">
-        <v>0.003295312108505612</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04183402201115365</v>
+      </c>
+      <c r="F76">
+        <v>-0.1215775551359889</v>
+      </c>
+      <c r="G76">
+        <v>0.02575297041135853</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01125835116022574</v>
+        <v>-0.06548959039947883</v>
       </c>
       <c r="C77">
-        <v>-0.01500176382900126</v>
+        <v>-0.06088951176433616</v>
       </c>
       <c r="D77">
-        <v>0.05404081494200383</v>
+        <v>-0.01244834427587729</v>
       </c>
       <c r="E77">
-        <v>-0.008295132631934194</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04642877141860356</v>
+      </c>
+      <c r="F77">
+        <v>0.02025336241657947</v>
+      </c>
+      <c r="G77">
+        <v>0.05092921438779777</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.003719922808677581</v>
+        <v>-0.03891675723143735</v>
       </c>
       <c r="C78">
-        <v>-0.007679481042837982</v>
+        <v>-0.05165812624324367</v>
       </c>
       <c r="D78">
-        <v>0.06679440322543999</v>
+        <v>-0.006084257920828659</v>
       </c>
       <c r="E78">
-        <v>0.0004755897128545844</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02014115937627304</v>
+      </c>
+      <c r="F78">
+        <v>0.04364389109547079</v>
+      </c>
+      <c r="G78">
+        <v>0.04072899289951508</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01503996849694239</v>
+        <v>-0.05525621755283791</v>
       </c>
       <c r="C80">
-        <v>-0.1195417196639599</v>
+        <v>-0.06233106722296838</v>
       </c>
       <c r="D80">
-        <v>0.1705811129511002</v>
+        <v>-0.0133932614908203</v>
       </c>
       <c r="E80">
-        <v>0.9120696188812989</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03282390893902117</v>
+      </c>
+      <c r="F80">
+        <v>0.07169545222549278</v>
+      </c>
+      <c r="G80">
+        <v>0.8840971371471202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.003270830584156751</v>
+        <v>-0.1467215901680858</v>
       </c>
       <c r="C81">
-        <v>-0.1269843635002686</v>
+        <v>-0.09568942962598574</v>
       </c>
       <c r="D81">
-        <v>0.1708849316969221</v>
+        <v>0.01528471258559277</v>
       </c>
       <c r="E81">
-        <v>-0.008644184506788218</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.02605731756684927</v>
+      </c>
+      <c r="F81">
+        <v>-0.1245659173960048</v>
+      </c>
+      <c r="G81">
+        <v>0.02335744395162516</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.09163001600639106</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05247159726550644</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.00461286142710223</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08011324229875533</v>
+      </c>
+      <c r="F82">
+        <v>-0.01556090426565996</v>
+      </c>
+      <c r="G82">
+        <v>0.004833460099011166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.00651503130930258</v>
+        <v>-0.03001983502011284</v>
       </c>
       <c r="C83">
-        <v>-0.02683810390500656</v>
+        <v>-0.01998085278111325</v>
       </c>
       <c r="D83">
-        <v>0.02212950556129972</v>
+        <v>-0.005034167438578958</v>
       </c>
       <c r="E83">
-        <v>-0.003919789076726428</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02128004361699031</v>
+      </c>
+      <c r="F83">
+        <v>0.02171325263623197</v>
+      </c>
+      <c r="G83">
+        <v>0.02685593804434236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01101019893001233</v>
+        <v>-0.2256826928248178</v>
       </c>
       <c r="C85">
-        <v>-0.152650577652119</v>
+        <v>-0.1518347029379259</v>
       </c>
       <c r="D85">
-        <v>0.2618401014814585</v>
+        <v>0.01820314995773231</v>
       </c>
       <c r="E85">
-        <v>-0.03018881233042817</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.08887170894514834</v>
+      </c>
+      <c r="F85">
+        <v>-0.17371318532167</v>
+      </c>
+      <c r="G85">
+        <v>-0.04703878725262548</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.006583075400231575</v>
+        <v>-0.007157538173248462</v>
       </c>
       <c r="C86">
-        <v>-0.02686995341245122</v>
+        <v>-0.0146666244966208</v>
       </c>
       <c r="D86">
-        <v>0.007487650043846016</v>
+        <v>-0.009945831906384695</v>
       </c>
       <c r="E86">
-        <v>-0.0207845892732695</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02648924905802971</v>
+      </c>
+      <c r="F86">
+        <v>0.03716483437515406</v>
+      </c>
+      <c r="G86">
+        <v>0.06377957409475384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007312715569572548</v>
+        <v>-0.01713149799647436</v>
       </c>
       <c r="C87">
-        <v>-0.01205574807614449</v>
+        <v>-0.02610013330875112</v>
       </c>
       <c r="D87">
-        <v>0.04116042866583075</v>
+        <v>-0.01104214040587032</v>
       </c>
       <c r="E87">
-        <v>-0.001296735512316709</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08191070186644593</v>
+      </c>
+      <c r="F87">
+        <v>0.03315497278605788</v>
+      </c>
+      <c r="G87">
+        <v>0.05454863040869822</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02624951482840427</v>
+        <v>-0.08927274124829244</v>
       </c>
       <c r="C88">
-        <v>-0.04061012396680379</v>
+        <v>-0.06265469061047853</v>
       </c>
       <c r="D88">
-        <v>0.03075065175568534</v>
+        <v>-0.02263860117366252</v>
       </c>
       <c r="E88">
-        <v>-0.003767753490681191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01275414659398253</v>
+      </c>
+      <c r="F88">
+        <v>-0.005701979857092566</v>
+      </c>
+      <c r="G88">
+        <v>0.030045170399813</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.05982409083607652</v>
+        <v>-0.2243506410606429</v>
       </c>
       <c r="C89">
-        <v>-0.3629954255645721</v>
+        <v>0.3651987977893</v>
       </c>
       <c r="D89">
-        <v>-0.2411419799263534</v>
+        <v>0.00527388825645842</v>
       </c>
       <c r="E89">
-        <v>-0.017672517198844</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01857342665775666</v>
+      </c>
+      <c r="F89">
+        <v>-0.02323338264766299</v>
+      </c>
+      <c r="G89">
+        <v>0.03669682226619646</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.04544368641518674</v>
+        <v>-0.1981836032021231</v>
       </c>
       <c r="C90">
-        <v>-0.2801278857102253</v>
+        <v>0.3288440759926936</v>
       </c>
       <c r="D90">
-        <v>-0.2259788833827757</v>
+        <v>0.00926913376243442</v>
       </c>
       <c r="E90">
-        <v>-0.01779980182696012</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01417658767704487</v>
+      </c>
+      <c r="F90">
+        <v>-0.04694381097483419</v>
+      </c>
+      <c r="G90">
+        <v>0.007704226158477508</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0006427037043283213</v>
+        <v>-0.2018655352126508</v>
       </c>
       <c r="C91">
-        <v>-0.1560673789994298</v>
+        <v>-0.1390318221434934</v>
       </c>
       <c r="D91">
-        <v>0.2402658782770777</v>
+        <v>0.02395608671110913</v>
       </c>
       <c r="E91">
-        <v>-0.01502321944563172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06348704925719545</v>
+      </c>
+      <c r="F91">
+        <v>-0.1645038439420536</v>
+      </c>
+      <c r="G91">
+        <v>0.01249854826564806</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.01121282195432497</v>
+        <v>-0.2039831109049378</v>
       </c>
       <c r="C92">
-        <v>-0.3252872263380142</v>
+        <v>0.2585185525515984</v>
       </c>
       <c r="D92">
-        <v>-0.09080052346490296</v>
+        <v>0.04721559348572314</v>
       </c>
       <c r="E92">
-        <v>-0.01280431044358394</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.002041162540555351</v>
+      </c>
+      <c r="F92">
+        <v>-0.09467832569418048</v>
+      </c>
+      <c r="G92">
+        <v>0.07371094779359394</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.04295897603015748</v>
+        <v>-0.2284922304128468</v>
       </c>
       <c r="C93">
-        <v>-0.3163984180981821</v>
+        <v>0.3302729577120655</v>
       </c>
       <c r="D93">
-        <v>-0.2203780753687383</v>
+        <v>0.01674690100374987</v>
       </c>
       <c r="E93">
-        <v>-0.04333479687960168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.002197207358129388</v>
+      </c>
+      <c r="F93">
+        <v>-0.03220792683146197</v>
+      </c>
+      <c r="G93">
+        <v>-0.0003929650806480611</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.02124430741215235</v>
+        <v>-0.3133787032506678</v>
       </c>
       <c r="C94">
-        <v>-0.2013784878266003</v>
+        <v>-0.1847506424573195</v>
       </c>
       <c r="D94">
-        <v>0.2461826818497132</v>
+        <v>0.01554374827485702</v>
       </c>
       <c r="E94">
-        <v>-0.06092590633572116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1182232032734302</v>
+      </c>
+      <c r="F94">
+        <v>-0.4865377340600197</v>
+      </c>
+      <c r="G94">
+        <v>-0.1502503670427162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004847990783457739</v>
+        <v>-0.085274811801515</v>
       </c>
       <c r="C95">
-        <v>-0.05043354085304125</v>
+        <v>-0.06560251798548485</v>
       </c>
       <c r="D95">
-        <v>0.08817691203418161</v>
+        <v>0.008200918085549064</v>
       </c>
       <c r="E95">
-        <v>-0.1115283491040199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07706140984619619</v>
+      </c>
+      <c r="F95">
+        <v>0.163175506620429</v>
+      </c>
+      <c r="G95">
+        <v>-0.07836132216692307</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.006265380244919372</v>
+        <v>-0.1974286173914255</v>
       </c>
       <c r="C98">
-        <v>-0.1604459481187607</v>
+        <v>-0.04506428937632611</v>
       </c>
       <c r="D98">
-        <v>0.1168804097256792</v>
+        <v>0.01383076263853653</v>
       </c>
       <c r="E98">
-        <v>-0.05502429785569434</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.05972703042253633</v>
+      </c>
+      <c r="F98">
+        <v>0.2568613464701927</v>
+      </c>
+      <c r="G98">
+        <v>-0.0360451175888096</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007059680454349644</v>
+        <v>-0.01049731179670099</v>
       </c>
       <c r="C101">
-        <v>-0.01704643985446773</v>
+        <v>-0.02001009185692641</v>
       </c>
       <c r="D101">
-        <v>0.01291454791387752</v>
+        <v>-0.007324404893588871</v>
       </c>
       <c r="E101">
-        <v>0.007795307464238259</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008404923204456136</v>
+      </c>
+      <c r="F101">
+        <v>-0.01127124859003661</v>
+      </c>
+      <c r="G101">
+        <v>0.03918488430358057</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01473978432285004</v>
+        <v>-0.1187748374686189</v>
       </c>
       <c r="C102">
-        <v>-0.09382728290066603</v>
+        <v>-0.08462806413301543</v>
       </c>
       <c r="D102">
-        <v>0.1306331815386287</v>
+        <v>-0.001371218711902559</v>
       </c>
       <c r="E102">
-        <v>-0.01560549865296515</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03023073158047298</v>
+      </c>
+      <c r="F102">
+        <v>-0.04221575810607678</v>
+      </c>
+      <c r="G102">
+        <v>-0.0007827411118694441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001742444992182359</v>
+        <v>-0.003763579631373542</v>
       </c>
       <c r="C103">
-        <v>-0.01340669657827425</v>
+        <v>-0.005324234092130892</v>
       </c>
       <c r="D103">
-        <v>0.02782224372455049</v>
+        <v>-0.0004785389043670765</v>
       </c>
       <c r="E103">
-        <v>0.01406205002191996</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002898782447574588</v>
+      </c>
+      <c r="F103">
+        <v>-0.007903354650862775</v>
+      </c>
+      <c r="G103">
+        <v>0.01809381163430052</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9836858252117979</v>
+        <v>-0.03021015287585919</v>
       </c>
       <c r="C104">
-        <v>0.1172019647561523</v>
+        <v>0.03881879039922963</v>
       </c>
       <c r="D104">
-        <v>-0.00835813771521699</v>
+        <v>-0.9872322348720721</v>
       </c>
       <c r="E104">
-        <v>0.02573682465465382</v>
+        <v>0.03725703618970751</v>
+      </c>
+      <c r="F104">
+        <v>-0.04560567373288309</v>
+      </c>
+      <c r="G104">
+        <v>-0.009557291272482511</v>
       </c>
     </row>
   </sheetData>
